--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.6017017642304</v>
+        <v>49.400308</v>
       </c>
       <c r="H2">
-        <v>48.6017017642304</v>
+        <v>148.200924</v>
       </c>
       <c r="I2">
-        <v>0.3064544711393237</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="J2">
-        <v>0.3064544711393237</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.690695554194427</v>
+        <v>1.387792333333333</v>
       </c>
       <c r="N2">
-        <v>0.690695554194427</v>
+        <v>4.163377</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4491959817916776</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4491959817916776</v>
       </c>
       <c r="Q2">
-        <v>33.56897933483737</v>
+        <v>68.55736870670532</v>
       </c>
       <c r="R2">
-        <v>33.56897933483737</v>
+        <v>617.0163183603479</v>
       </c>
       <c r="S2">
-        <v>0.3064544711393237</v>
+        <v>0.1360211063138849</v>
       </c>
       <c r="T2">
-        <v>0.3064544711393237</v>
+        <v>0.1360211063138848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.4070516996933</v>
+        <v>49.400308</v>
       </c>
       <c r="H3">
-        <v>69.4070516996933</v>
+        <v>148.200924</v>
       </c>
       <c r="I3">
-        <v>0.4376410814821192</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="J3">
-        <v>0.4376410814821192</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.690695554194427</v>
+        <v>0.4615953333333334</v>
       </c>
       <c r="N3">
-        <v>0.690695554194427</v>
+        <v>1.384786</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1494076339570906</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1494076339570906</v>
       </c>
       <c r="Q3">
-        <v>47.93914203872091</v>
+        <v>22.80295163802933</v>
       </c>
       <c r="R3">
-        <v>47.93914203872091</v>
+        <v>205.226564742264</v>
       </c>
       <c r="S3">
-        <v>0.4376410814821192</v>
+        <v>0.04524214927641176</v>
       </c>
       <c r="T3">
-        <v>0.4376410814821192</v>
+        <v>0.04524214927641176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,424 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.5847941633666</v>
+        <v>49.400308</v>
       </c>
       <c r="H4">
-        <v>40.5847941633666</v>
+        <v>148.200924</v>
       </c>
       <c r="I4">
-        <v>0.2559044473785571</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="J4">
-        <v>0.2559044473785571</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.690695554194427</v>
+        <v>1.240115333333333</v>
       </c>
       <c r="N4">
-        <v>0.690695554194427</v>
+        <v>3.720346</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.4013963842512318</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.4013963842512318</v>
       </c>
       <c r="Q4">
-        <v>28.03173689653324</v>
+        <v>61.26207942218932</v>
       </c>
       <c r="R4">
-        <v>28.03173689653324</v>
+        <v>551.3587147997039</v>
       </c>
       <c r="S4">
-        <v>0.2559044473785571</v>
+        <v>0.1215469026202615</v>
       </c>
       <c r="T4">
-        <v>0.2559044473785571</v>
+        <v>0.1215469026202615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>69.564149</v>
+      </c>
+      <c r="H5">
+        <v>208.692447</v>
+      </c>
+      <c r="I5">
+        <v>0.4264088994034781</v>
+      </c>
+      <c r="J5">
+        <v>0.4264088994034782</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.387792333333333</v>
+      </c>
+      <c r="N5">
+        <v>4.163377</v>
+      </c>
+      <c r="O5">
+        <v>0.4491959817916776</v>
+      </c>
+      <c r="P5">
+        <v>0.4491959817916776</v>
+      </c>
+      <c r="Q5">
+        <v>96.54059265705766</v>
+      </c>
+      <c r="R5">
+        <v>868.865333913519</v>
+      </c>
+      <c r="S5">
+        <v>0.1915411642122541</v>
+      </c>
+      <c r="T5">
+        <v>0.1915411642122541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>69.564149</v>
+      </c>
+      <c r="H6">
+        <v>208.692447</v>
+      </c>
+      <c r="I6">
+        <v>0.4264088994034781</v>
+      </c>
+      <c r="J6">
+        <v>0.4264088994034782</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.4615953333333334</v>
+      </c>
+      <c r="N6">
+        <v>1.384786</v>
+      </c>
+      <c r="O6">
+        <v>0.1494076339570906</v>
+      </c>
+      <c r="P6">
+        <v>0.1494076339570906</v>
+      </c>
+      <c r="Q6">
+        <v>32.11048654570467</v>
+      </c>
+      <c r="R6">
+        <v>288.994378911342</v>
+      </c>
+      <c r="S6">
+        <v>0.06370874475812074</v>
+      </c>
+      <c r="T6">
+        <v>0.06370874475812074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>69.564149</v>
+      </c>
+      <c r="H7">
+        <v>208.692447</v>
+      </c>
+      <c r="I7">
+        <v>0.4264088994034781</v>
+      </c>
+      <c r="J7">
+        <v>0.4264088994034782</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.240115333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.720346</v>
+      </c>
+      <c r="O7">
+        <v>0.4013963842512318</v>
+      </c>
+      <c r="P7">
+        <v>0.4013963842512318</v>
+      </c>
+      <c r="Q7">
+        <v>86.26756782518466</v>
+      </c>
+      <c r="R7">
+        <v>776.408110426662</v>
+      </c>
+      <c r="S7">
+        <v>0.1711589904331034</v>
+      </c>
+      <c r="T7">
+        <v>0.1711589904331034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>44.17507666666666</v>
+      </c>
+      <c r="H8">
+        <v>132.52523</v>
+      </c>
+      <c r="I8">
+        <v>0.2707809423859638</v>
+      </c>
+      <c r="J8">
+        <v>0.2707809423859638</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.387792333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.163377</v>
+      </c>
+      <c r="O8">
+        <v>0.4491959817916776</v>
+      </c>
+      <c r="P8">
+        <v>0.4491959817916776</v>
+      </c>
+      <c r="Q8">
+        <v>61.30583272241221</v>
+      </c>
+      <c r="R8">
+        <v>551.75249450171</v>
+      </c>
+      <c r="S8">
+        <v>0.1216337112655387</v>
+      </c>
+      <c r="T8">
+        <v>0.1216337112655387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>44.17507666666666</v>
+      </c>
+      <c r="H9">
+        <v>132.52523</v>
+      </c>
+      <c r="I9">
+        <v>0.2707809423859638</v>
+      </c>
+      <c r="J9">
+        <v>0.2707809423859638</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.4615953333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.384786</v>
+      </c>
+      <c r="O9">
+        <v>0.1494076339570906</v>
+      </c>
+      <c r="P9">
+        <v>0.1494076339570906</v>
+      </c>
+      <c r="Q9">
+        <v>20.39100923897556</v>
+      </c>
+      <c r="R9">
+        <v>183.51908315078</v>
+      </c>
+      <c r="S9">
+        <v>0.04045673992255813</v>
+      </c>
+      <c r="T9">
+        <v>0.04045673992255812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>44.17507666666666</v>
+      </c>
+      <c r="H10">
+        <v>132.52523</v>
+      </c>
+      <c r="I10">
+        <v>0.2707809423859638</v>
+      </c>
+      <c r="J10">
+        <v>0.2707809423859638</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.240115333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.720346</v>
+      </c>
+      <c r="O10">
+        <v>0.4013963842512318</v>
+      </c>
+      <c r="P10">
+        <v>0.4013963842512318</v>
+      </c>
+      <c r="Q10">
+        <v>54.78218992550888</v>
+      </c>
+      <c r="R10">
+        <v>493.0397093295799</v>
+      </c>
+      <c r="S10">
+        <v>0.108690491197867</v>
+      </c>
+      <c r="T10">
+        <v>0.108690491197867</v>
       </c>
     </row>
   </sheetData>
